--- a/tp1_fisica/estudio_aceleraciones_M200_mesa.xlsx
+++ b/tp1_fisica/estudio_aceleraciones_M200_mesa.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>m</t>
   </si>
@@ -58,9 +58,6 @@
     <t>2500,2961.00</t>
   </si>
   <si>
-    <t>2750,2941.00</t>
-  </si>
-  <si>
     <t>1000,254.00</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
   </si>
   <si>
     <t>3250,2891.00</t>
-  </si>
-  <si>
-    <t>3500,2878.00</t>
   </si>
 </sst>
 </file>
@@ -490,28 +484,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="2">
+        <v>71.6</v>
+      </c>
+      <c r="B14" s="2">
+        <v>249.724</v>
+      </c>
       <c r="C14" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2">
-        <v>71.6</v>
-      </c>
-      <c r="B15" s="2">
-        <v>249.724</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
@@ -543,19 +537,19 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="A21" s="2">
+        <v>71.6</v>
+      </c>
+      <c r="B21" s="2">
+        <v>255.084</v>
+      </c>
       <c r="C21" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2">
-        <v>71.6</v>
-      </c>
-      <c r="B22" s="2">
-        <v>255.084</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
         <v>22</v>
       </c>
@@ -589,19 +583,19 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="A27" s="2">
+        <v>71.6</v>
+      </c>
+      <c r="B27" s="2">
+        <v>206.784</v>
+      </c>
       <c r="C27" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2">
-        <v>71.6</v>
-      </c>
-      <c r="B28" s="2">
-        <v>206.784</v>
-      </c>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
         <v>28</v>
       </c>
@@ -648,20 +642,6 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
